--- a/movies_test _anon_sample.xlsx
+++ b/movies_test _anon_sample.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Yash Raj Films</t>
+          <t>yash raj films</t>
         </is>
       </c>
       <c r="AB2" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>October 2, 2019</t>
+          <t>october 2, 2019</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Roadside Attraction</t>
+          <t>roadside attraction</t>
         </is>
       </c>
       <c r="AB3" t="n">
@@ -812,23 +812,15 @@
       <c r="R4" t="n">
         <v>21.4</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
         <v>21360215</v>
       </c>
       <c r="V4" t="n">
         <v>21.4</v>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
         <v>44</v>
       </c>
@@ -844,7 +836,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Warner Bros. Pictures</t>
+          <t>warner bros. pictures</t>
         </is>
       </c>
       <c r="AB4" t="n">
@@ -855,7 +847,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>June 14, 2019</t>
+          <t>june 14, 2019</t>
         </is>
       </c>
     </row>
@@ -950,7 +942,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Roadshow Entertainment</t>
+          <t>roadshow entertainment</t>
         </is>
       </c>
       <c r="AB5" t="n">
@@ -1055,7 +1047,7 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>May 4, 2018</t>
+          <t>may 4, 2018</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1134,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Paramount Pictures</t>
+          <t>paramount pictures</t>
         </is>
       </c>
       <c r="AB7" t="n">
@@ -1153,7 +1145,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>November 10, 2021</t>
+          <t>november 10, 2021</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1230,7 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Focus Features</t>
+          <t>focus features</t>
         </is>
       </c>
       <c r="AB8" t="n">
@@ -1249,7 +1241,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>June 14, 2019</t>
+          <t>june 14, 2019</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1328,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Warner Bros.</t>
+          <t>warner bros.</t>
         </is>
       </c>
       <c r="AB9" t="n">
@@ -1347,7 +1339,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>March 31, 2021</t>
+          <t>march 31, 2021</t>
         </is>
       </c>
     </row>
@@ -1410,23 +1402,15 @@
       <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
         <v>3005408</v>
       </c>
       <c r="V10" t="n">
         <v>3</v>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
         <v>5</v>
       </c>
@@ -1442,7 +1426,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>NEON</t>
+          <t>neon</t>
         </is>
       </c>
       <c r="AB10" t="n">
@@ -1453,7 +1437,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>March 29, 2019</t>
+          <t>march 29, 2019</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1532,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Sony Pictures</t>
+          <t>sony pictures</t>
         </is>
       </c>
       <c r="AB11" t="n">
@@ -1559,7 +1543,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Jun 14, 2019</t>
+          <t>jun 14, 2019</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1641,7 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>September 21, 2018</t>
+          <t>september 21, 2018</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1718,7 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Sony Pictures Entertainment (SPE)</t>
+          <t>sony pictures entertainment (spe)</t>
         </is>
       </c>
       <c r="AB13" t="n">
@@ -1745,7 +1729,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>June 11, 2021</t>
+          <t>june 11, 2021</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1816,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Warner Bros.</t>
+          <t>warner bros.</t>
         </is>
       </c>
       <c r="AB14" t="n">
@@ -1843,7 +1827,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>June 11, 2021</t>
+          <t>june 11, 2021</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1922,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Lionsgate</t>
+          <t>lionsgate</t>
         </is>
       </c>
       <c r="AB15" t="n">
@@ -1949,7 +1933,7 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Oct 11, 2019</t>
+          <t>oct 11, 2019</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2020,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Screen Gems</t>
+          <t>screen gems</t>
         </is>
       </c>
       <c r="AB16" t="n">
@@ -2047,7 +2031,7 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>November 24, 2021</t>
+          <t>november 24, 2021</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2129,7 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>Jul 6, 2018</t>
+          <t>jul 6, 2018</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2227,7 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>February 9, 2018</t>
+          <t>february 9, 2018</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2318,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Universal Pictures</t>
+          <t>universal pictures</t>
         </is>
       </c>
       <c r="AB19" t="n">
@@ -2420,7 +2404,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Lionsgate</t>
+          <t>lionsgate</t>
         </is>
       </c>
       <c r="AB20" t="n">
@@ -2431,7 +2415,7 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>December 25, 2021</t>
+          <t>december 25, 2021</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2513,7 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>November 21, 2018</t>
+          <t>november 21, 2018</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2604,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Bloody Disgusting</t>
+          <t>bloody disgusting</t>
         </is>
       </c>
       <c r="AB22" t="n">
@@ -2725,7 +2709,7 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>Mar 23, 2018</t>
+          <t>mar 23, 2018</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2794,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Focus Features</t>
+          <t>focus features</t>
         </is>
       </c>
       <c r="AB24" t="n">
@@ -2912,7 +2896,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Universal Pictures</t>
+          <t>universal pictures</t>
         </is>
       </c>
       <c r="AB25" t="n">
@@ -2923,7 +2907,7 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>Nov 13, 2020</t>
+          <t>nov 13, 2020</t>
         </is>
       </c>
     </row>
@@ -2944,9 +2928,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>8</v>
       </c>
@@ -3008,7 +2990,7 @@
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Screen Media</t>
+          <t>screen media</t>
         </is>
       </c>
       <c r="AB26" t="n">
@@ -3100,7 +3082,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Focus Features</t>
+          <t>focus features</t>
         </is>
       </c>
       <c r="AB27" t="n">
@@ -3111,7 +3093,7 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>Dec 4, 2020</t>
+          <t>dec 4, 2020</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3188,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Roadside Attractions</t>
+          <t>roadside attractions</t>
         </is>
       </c>
       <c r="AB28" t="n">
@@ -3217,7 +3199,7 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>August 9, 2019</t>
+          <t>august 9, 2019</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3294,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Amazon Studios</t>
+          <t>amazon studios</t>
         </is>
       </c>
       <c r="AB29" t="n">
@@ -3323,7 +3305,7 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>Jun 7, 2019</t>
+          <t>jun 7, 2019</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3392,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Sony Pictures Entertainment (SPE)</t>
+          <t>sony pictures entertainment (spe)</t>
         </is>
       </c>
       <c r="AB30" t="n">
@@ -3421,7 +3403,7 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>June 11, 2021</t>
+          <t>june 11, 2021</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3498,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Walt Disney Studios Motion Pictures</t>
+          <t>walt disney studios motion pictures</t>
         </is>
       </c>
       <c r="AB31" t="n">
@@ -3586,12 +3568,8 @@
       <c r="R32" t="n">
         <v>30</v>
       </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
         <v>29796477</v>
       </c>
@@ -3613,7 +3591,7 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>December 25, 2018</t>
+          <t>december 25, 2018</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3678,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Warner Bros.</t>
+          <t>warner bros.</t>
         </is>
       </c>
       <c r="AB33" t="n">
@@ -3711,7 +3689,7 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>October 1, 2021</t>
+          <t>october 1, 2021</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3787,7 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>Jul 20, 2018</t>
+          <t>jul 20, 2018</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3885,7 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>Nov 2, 2018</t>
+          <t>nov 2, 2018</t>
         </is>
       </c>
     </row>
@@ -4002,7 +3980,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Warner Bros. Pictures</t>
+          <t>warner bros. pictures</t>
         </is>
       </c>
       <c r="AB36" t="n">
@@ -4013,7 +3991,7 @@
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>April 19, 2019</t>
+          <t>april 19, 2019</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4081,7 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>May 18, 2018</t>
+          <t>may 18, 2018</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4166,7 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>20th Century Fox</t>
+          <t>20th century fox</t>
         </is>
       </c>
       <c r="AB38" t="n">
@@ -4199,7 +4177,7 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>August 9, 2019</t>
+          <t>august 9, 2019</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4272,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Paramount Pictures</t>
+          <t>paramount pictures</t>
         </is>
       </c>
       <c r="AB39" t="n">
@@ -4396,7 +4374,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Warner Bros. Pictures</t>
+          <t>warner bros. pictures</t>
         </is>
       </c>
       <c r="AB40" t="n">
@@ -4407,7 +4385,7 @@
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>May 31, 2019</t>
+          <t>may 31, 2019</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4483,7 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>Aug 10, 2018</t>
+          <t>aug 10, 2018</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4578,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Sony Pictures</t>
+          <t>sony pictures</t>
         </is>
       </c>
       <c r="AB42" t="n">
@@ -4611,7 +4589,7 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>Nov 15, 2019</t>
+          <t>nov 15, 2019</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4684,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Lionsgate</t>
+          <t>lionsgate</t>
         </is>
       </c>
       <c r="AB43" t="n">
@@ -4717,7 +4695,7 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>Dec 18, 2020</t>
+          <t>dec 18, 2020</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4774,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Universal Pictures</t>
+          <t>universal pictures</t>
         </is>
       </c>
       <c r="AB44" t="n">
@@ -4807,7 +4785,7 @@
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>Dec 25, 2020</t>
+          <t>dec 25, 2020</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4883,7 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>Nov 16, 2018</t>
+          <t>nov 16, 2018</t>
         </is>
       </c>
     </row>
@@ -5003,7 +4981,7 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>January 12, 2018</t>
+          <t>january 12, 2018</t>
         </is>
       </c>
     </row>
@@ -5045,9 +5023,7 @@
       <c r="K47" t="n">
         <v>85</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
@@ -5066,9 +5042,7 @@
       <c r="R47" t="n">
         <v>4</v>
       </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="n">
         <v>25419</v>
       </c>
@@ -5091,7 +5065,7 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>Jul 20, 2018</t>
+          <t>jul 20, 2018</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5163,7 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>September 7, 2018</t>
+          <t>september 7, 2018</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5258,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>20th Century Studios</t>
+          <t>20th century studios</t>
         </is>
       </c>
       <c r="AB49" t="n">
@@ -5386,7 +5360,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Walt Disney Studios</t>
+          <t>walt disney studios</t>
         </is>
       </c>
       <c r="AB50" t="n">
@@ -5397,7 +5371,7 @@
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>Apr 26, 2019</t>
+          <t>apr 26, 2019</t>
         </is>
       </c>
     </row>
@@ -5492,7 +5466,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Warner Bros. Pictures</t>
+          <t>warner bros. pictures</t>
         </is>
       </c>
       <c r="AB51" t="n">
@@ -5503,7 +5477,7 @@
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>April 5, 2019</t>
+          <t>april 5, 2019</t>
         </is>
       </c>
     </row>
